--- a/内控主题/采购退货模板.xlsx
+++ b/内控主题/采购退货模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\彩食鲜工作内容\SQL\内控主题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BC8D9E-FF15-4C3B-A1E7-292B438D0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE788991-9823-4F44-AFCE-939480CA0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,24 @@
     <sheet name="采购退货汇总表" sheetId="1" r:id="rId1"/>
     <sheet name="退货明细表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>大区</t>
   </si>
@@ -412,6 +424,14 @@
   </si>
   <si>
     <t>超时订单、超时标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时入库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时未入库</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -786,32 +806,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="14.25"/>
@@ -1148,57 +1168,63 @@
     <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="58.5" customHeight="1">
+    <row r="1" spans="1:14" ht="58.5" customHeight="1">
       <c r="B1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="39.6" customHeight="1">
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" ht="39.6" customHeight="1">
       <c r="H2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.600000000000001" customHeight="1">
+      <c r="L3" s="29"/>
+      <c r="M3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1236,11 +1262,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1256,9 +1282,9 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1272,9 +1298,9 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1288,8 +1314,8 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A8" s="31"/>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
@@ -1306,8 +1332,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A9" s="31"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1324,8 +1350,8 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A10" s="31"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1342,8 +1368,8 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A11" s="31"/>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1360,11 +1386,11 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
@@ -1376,7 +1402,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1422,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -1412,11 +1438,11 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
@@ -1428,11 +1454,11 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1449,8 +1475,8 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1465,8 +1491,8 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1481,8 +1507,8 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
@@ -1497,8 +1523,8 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
@@ -1513,8 +1539,8 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1529,8 +1555,8 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
@@ -1545,8 +1571,8 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1587,7 @@
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
@@ -1579,10 +1605,10 @@
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="13"/>
@@ -1595,7 +1621,7 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1615,7 +1641,7 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1633,8 +1659,8 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1651,8 +1677,8 @@
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
@@ -1667,8 +1693,8 @@
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
@@ -1683,10 +1709,10 @@
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="13"/>
@@ -1699,10 +1725,10 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1719,8 +1745,8 @@
       <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="9" t="s">
         <v>47</v>
       </c>
@@ -1735,8 +1761,8 @@
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="9" t="s">
         <v>48</v>
       </c>
@@ -1751,8 +1777,8 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="9" t="s">
         <v>49</v>
       </c>
@@ -1767,7 +1793,7 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="9" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1811,7 @@
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="9" t="s">
         <v>52</v>
       </c>
@@ -1803,10 +1829,10 @@
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="13"/>
@@ -1839,10 +1865,10 @@
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
       <c r="E40" s="13"/>
@@ -1855,7 +1881,7 @@
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1875,7 +1901,7 @@
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="9" t="s">
         <v>60</v>
       </c>
@@ -1893,8 +1919,8 @@
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -1911,8 +1937,8 @@
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="9" t="s">
         <v>64</v>
       </c>
@@ -1927,10 +1953,10 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="13"/>
@@ -1943,10 +1969,10 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" ht="31.9" customHeight="1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
@@ -1960,6 +1986,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A38:B38"/>
@@ -1976,16 +2012,6 @@
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="B16:B23"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>
